--- a/Resources/FinalUnemploymentInfo.xlsx
+++ b/Resources/FinalUnemploymentInfo.xlsx
@@ -1,37 +1,378 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="111">
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>2002 Unemployment Percent</t>
+  </si>
+  <si>
+    <t>2003 Unemployment Percent</t>
+  </si>
+  <si>
+    <t>2004 Unemployment Percent</t>
+  </si>
+  <si>
+    <t>2005 Unemployment Percent</t>
+  </si>
+  <si>
+    <t>2006 Unemployment Percent</t>
+  </si>
+  <si>
+    <t>2007 Unemployment Percent</t>
+  </si>
+  <si>
+    <t>2008 Unemployment Percent</t>
+  </si>
+  <si>
+    <t>2009 Unemployment Percent</t>
+  </si>
+  <si>
+    <t>2010 Unemployment Percent</t>
+  </si>
+  <si>
+    <t>2011 Unemployment Percent</t>
+  </si>
+  <si>
+    <t>2012 Unemployment Percent</t>
+  </si>
+  <si>
+    <t>2013 Unemployment Percent</t>
+  </si>
+  <si>
+    <t>2014 Unemployment Percent</t>
+  </si>
+  <si>
+    <t>2015 Unemployment Percent</t>
+  </si>
+  <si>
+    <t>2016 Unemployment Percent</t>
+  </si>
+  <si>
+    <t>2017 Unemployment Percent</t>
+  </si>
+  <si>
+    <t>2018 Unemployment Percent</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Adams County</t>
+  </si>
+  <si>
+    <t>Allen County</t>
+  </si>
+  <si>
+    <t>Ashland County</t>
+  </si>
+  <si>
+    <t>Ashtabula County</t>
+  </si>
+  <si>
+    <t>Athens County</t>
+  </si>
+  <si>
+    <t>Auglaize County</t>
+  </si>
+  <si>
+    <t>Belmont County</t>
+  </si>
+  <si>
+    <t>Brown County</t>
+  </si>
+  <si>
+    <t>Butler County</t>
+  </si>
+  <si>
+    <t>Carroll County</t>
+  </si>
+  <si>
+    <t>Champaign County</t>
+  </si>
+  <si>
+    <t>Clark County</t>
+  </si>
+  <si>
+    <t>Clermont County</t>
+  </si>
+  <si>
+    <t>Clinton County</t>
+  </si>
+  <si>
+    <t>Columbiana County</t>
+  </si>
+  <si>
+    <t>Coshocton County</t>
+  </si>
+  <si>
+    <t>Crawford County</t>
+  </si>
+  <si>
+    <t>Cuyahoga County</t>
+  </si>
+  <si>
+    <t>Darke County</t>
+  </si>
+  <si>
+    <t>Defiance County</t>
+  </si>
+  <si>
+    <t>Delaware County</t>
+  </si>
+  <si>
+    <t>Erie County</t>
+  </si>
+  <si>
+    <t>Fairfield County</t>
+  </si>
+  <si>
+    <t>Fayette County</t>
+  </si>
+  <si>
+    <t>Franklin County</t>
+  </si>
+  <si>
+    <t>Fulton County</t>
+  </si>
+  <si>
+    <t>Gallia County</t>
+  </si>
+  <si>
+    <t>Geauga County</t>
+  </si>
+  <si>
+    <t>Greene County</t>
+  </si>
+  <si>
+    <t>Guernsey County</t>
+  </si>
+  <si>
+    <t>Hamilton County</t>
+  </si>
+  <si>
+    <t>Hancock County</t>
+  </si>
+  <si>
+    <t>Hardin County</t>
+  </si>
+  <si>
+    <t>Harrison County</t>
+  </si>
+  <si>
+    <t>Henry County</t>
+  </si>
+  <si>
+    <t>Highland County</t>
+  </si>
+  <si>
+    <t>Hocking County</t>
+  </si>
+  <si>
+    <t>Holmes County</t>
+  </si>
+  <si>
+    <t>Huron County</t>
+  </si>
+  <si>
+    <t>Jackson County</t>
+  </si>
+  <si>
+    <t>Jefferson County</t>
+  </si>
+  <si>
+    <t>Knox County</t>
+  </si>
+  <si>
+    <t>Lake County</t>
+  </si>
+  <si>
+    <t>Lawrence County</t>
+  </si>
+  <si>
+    <t>Licking County</t>
+  </si>
+  <si>
+    <t>Logan County</t>
+  </si>
+  <si>
+    <t>Lorain County</t>
+  </si>
+  <si>
+    <t>Lucas County</t>
+  </si>
+  <si>
+    <t>Madison County</t>
+  </si>
+  <si>
+    <t>Mahoning County</t>
+  </si>
+  <si>
+    <t>Marion County</t>
+  </si>
+  <si>
+    <t>Medina County</t>
+  </si>
+  <si>
+    <t>Meigs County</t>
+  </si>
+  <si>
+    <t>Mercer County</t>
+  </si>
+  <si>
+    <t>Miami County</t>
+  </si>
+  <si>
+    <t>Monroe County</t>
+  </si>
+  <si>
+    <t>Montgomery County</t>
+  </si>
+  <si>
+    <t>Morgan County</t>
+  </si>
+  <si>
+    <t>Morrow County</t>
+  </si>
+  <si>
+    <t>Muskingum County</t>
+  </si>
+  <si>
+    <t>Noble County</t>
+  </si>
+  <si>
+    <t>Ottawa County</t>
+  </si>
+  <si>
+    <t>Paulding County</t>
+  </si>
+  <si>
+    <t>Perry County</t>
+  </si>
+  <si>
+    <t>Pickaway County</t>
+  </si>
+  <si>
+    <t>Pike County</t>
+  </si>
+  <si>
+    <t>Portage County</t>
+  </si>
+  <si>
+    <t>Preble County</t>
+  </si>
+  <si>
+    <t>Putnam County</t>
+  </si>
+  <si>
+    <t>Richland County</t>
+  </si>
+  <si>
+    <t>Ross County</t>
+  </si>
+  <si>
+    <t>Sandusky County</t>
+  </si>
+  <si>
+    <t>Scioto County</t>
+  </si>
+  <si>
+    <t>Seneca County</t>
+  </si>
+  <si>
+    <t>Shelby County</t>
+  </si>
+  <si>
+    <t>Stark County</t>
+  </si>
+  <si>
+    <t>Summit County</t>
+  </si>
+  <si>
+    <t>Trumbull County</t>
+  </si>
+  <si>
+    <t>Tuscarawas County</t>
+  </si>
+  <si>
+    <t>Union County</t>
+  </si>
+  <si>
+    <t>Van Wert County</t>
+  </si>
+  <si>
+    <t>Vinton County</t>
+  </si>
+  <si>
+    <t>Warren County</t>
+  </si>
+  <si>
+    <t>Washington County</t>
+  </si>
+  <si>
+    <t>Wayne County</t>
+  </si>
+  <si>
+    <t>Williams County</t>
+  </si>
+  <si>
+    <t>Wood County</t>
+  </si>
+  <si>
+    <t>Wyandot County</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +387,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,5787 +703,5383 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>State</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>County</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>2002 Unemployment Percent</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>2003 Unemployment Percent</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>2004 Unemployment Percent</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>2005 Unemployment Percent</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>2006 Unemployment Percent</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>2007 Unemployment Percent</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2008 Unemployment Percent</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2009 Unemployment Percent</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>2010 Unemployment Percent</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>2011 Unemployment Percent</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>2012 Unemployment Percent</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>2013 Unemployment Percent</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>2014 Unemployment Percent</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>2015 Unemployment Percent</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>2016 Unemployment Percent</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>2017 Unemployment Percent</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>2018 Unemployment Percent</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:19">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
         <v>5.788149356842041</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>5.983500003814697</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>5.527962207794189</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>5.112025737762451</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>4.630433559417725</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>4.622425079345703</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>5.788650035858154</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>9.251235961914062</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>9.63388729095459</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>8.951434135437012</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>8.069576263427734</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>7.374532222747803</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>6.167400360107422</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>5.282897472381592</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>4.868822574615479</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>4.354932308197021</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>3.895279884338379</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Ohio</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
         <v>5.8</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>6.2</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>6.3</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>5.9</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>5.4</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>5.6</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>6.6</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>10.2</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>10.3</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>8.800000000000001</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>7.4</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>7.5</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>5.8</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>5</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>5</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>5</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>4.5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Adams County</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
         <v>9.9</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>10</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>9.800000000000001</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>8.5</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>7.6</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>7.7</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>9.4</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>14.6</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>16</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>14.3</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>12.5</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>12.7</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>9.199999999999999</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>7.9</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>7.6</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>7.2</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Allen County</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
         <v>6.6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>6.9</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>6.8</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>6.3</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>6.1</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>6.3</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>7.5</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>11.3</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>10.7</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>9.5</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>7.7</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>7.8</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>5.8</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>4.9</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>5</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>5</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>4.5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ashland County</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
         <v>6.4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>7</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>7.3</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>6.5</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>5.5</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>6</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>7.6</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>12.5</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>11.9</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>9.9</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>8</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>8.1</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>6</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>5.1</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>5.1</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>4.9</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>4.6</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Ashtabula County</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
         <v>7.6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>8</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>7.6</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>7.4</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>6.7</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>7</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>8.1</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>13.5</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>13</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>10.9</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>9.4</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>9.5</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>7.2</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>6</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>6.1</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>5.9</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>5.2</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Athens County</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
         <v>6.3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>6.7</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>6.9</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>6.6</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>5.9</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>6.1</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>6.8</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>8.800000000000001</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>10.7</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>9.9</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>8.5</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>9</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>6.9</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>6.3</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>6.4</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>6</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8">
         <v>5.7</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Auglaize County</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+    <row r="9" spans="1:19">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>5.3</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>5.3</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>4.6</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>4.2</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>4.5</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>5.5</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>10.6</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>10</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>8.1</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>6.2</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>5.9</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>4.3</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>3.7</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9">
         <v>3.8</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>3.7</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9">
         <v>3.3</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Belmont County</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+    <row r="10" spans="1:19">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
         <v>7.1</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>6.9</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>7.1</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>6.6</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>5.8</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>5.6</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>6.2</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>9.199999999999999</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>11.3</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>9.5</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>8.199999999999999</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>8.199999999999999</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>6.7</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>6.4</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10">
         <v>7.5</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10">
         <v>6.3</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10">
         <v>5.5</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Brown County</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+    <row r="11" spans="1:19">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
         <v>7.1</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>7.3</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>7.2</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>7</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>6.9</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>6.5</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>7.7</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>12.7</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>13.3</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>11.8</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>10</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>10.1</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>7.4</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>6.3</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11">
         <v>5.8</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11">
         <v>5.7</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11">
         <v>5.4</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Butler County</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
         <v>5.4</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>5.5</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>5.6</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>5.4</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>5.7</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>5.1</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>6</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>9.6</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>10.1</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>9.1</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>7.7</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>7.5</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>5.5</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12">
         <v>4.6</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12">
         <v>4.5</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12">
         <v>4.4</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12">
         <v>4.1</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Carroll County</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+    <row r="13" spans="1:19">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13">
         <v>6.9</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>7.9</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>7.7</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>6.9</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>6.1</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>6.2</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>7.7</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>13.7</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>13</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>10.2</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>7.9</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13">
         <v>7.9</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13">
         <v>6.1</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13">
         <v>6</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13">
         <v>6.9</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13">
         <v>5.8</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13">
         <v>5.3</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Champaign County</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+    <row r="14" spans="1:19">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
         <v>6.4</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>6.8</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>6.3</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>5.8</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>5.1</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>5.9</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>7.1</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>11.9</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>11.6</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>9.4</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>7.4</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14">
         <v>6.9</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14">
         <v>5.1</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14">
         <v>4.4</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14">
         <v>4.5</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14">
         <v>4.1</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14">
         <v>3.8</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Clark County</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+    <row r="15" spans="1:19">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
         <v>7.2</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>7.5</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>7</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>6.5</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>5.6</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>6.3</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>6.8</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>10.6</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>11.1</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>9.5</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>7.8</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15">
         <v>7.5</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15">
         <v>5.8</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15">
         <v>5.1</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15">
         <v>5.3</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15">
         <v>4.8</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15">
         <v>4.6</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Clermont County</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+    <row r="16" spans="1:19">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
         <v>5.6</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>5.7</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>5.7</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>5.5</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>5.1</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>5.1</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>6</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>9.800000000000001</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>10.4</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>9.199999999999999</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>7.4</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16">
         <v>7.3</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16">
         <v>5.5</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16">
         <v>4.6</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16">
         <v>4.5</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16">
         <v>4.4</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S16">
         <v>4.1</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Clinton County</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+    <row r="17" spans="1:19">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17">
         <v>5.2</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>5.8</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>6.3</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>5.6</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>4.8</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>4.8</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>6.1</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>14.7</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>17.1</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>13.5</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17">
         <v>10.7</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17">
         <v>10.4</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17">
         <v>7.7</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17">
         <v>6.3</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17">
         <v>5.9</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17">
         <v>5.5</v>
       </c>
-      <c r="S17" t="n">
+      <c r="S17">
         <v>5.2</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Columbiana County</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+    <row r="18" spans="1:19">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18">
         <v>7.1</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>7.7</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>7.6</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>7.3</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>6.5</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>6.2</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>7.3</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>13.4</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>12.6</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>10.1</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18">
         <v>8.199999999999999</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18">
         <v>8.199999999999999</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18">
         <v>6.5</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P18">
         <v>5.9</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18">
         <v>6.7</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18">
         <v>5.9</v>
       </c>
-      <c r="S18" t="n">
+      <c r="S18">
         <v>5.1</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Coshocton County</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+    <row r="19" spans="1:19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19">
         <v>6.7</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>7.5</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>9.300000000000001</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>8.4</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>6.9</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>6.9</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>8.699999999999999</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>13.5</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>12.7</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>11.4</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19">
         <v>10</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19">
         <v>9.699999999999999</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19">
         <v>7.5</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P19">
         <v>6.4</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19">
         <v>7.1</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R19">
         <v>6.8</v>
       </c>
-      <c r="S19" t="n">
+      <c r="S19">
         <v>6.2</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Crawford County</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+    <row r="20" spans="1:19">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20">
         <v>7.4</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>7.9</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>7.9</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>6.8</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>6.5</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>7</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>8.800000000000001</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>14.8</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>12.9</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20">
         <v>11.5</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20">
         <v>9</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20">
         <v>9.1</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20">
         <v>6.7</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P20">
         <v>5.9</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20">
         <v>6.1</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R20">
         <v>5.7</v>
       </c>
-      <c r="S20" t="n">
+      <c r="S20">
         <v>5.2</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Cuyahoga County</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+    <row r="21" spans="1:19">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21">
         <v>5</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>5.6</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>5.5</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>5.4</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>5.1</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>5.9</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>6.4</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>7.9</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>8.6</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21">
         <v>7.6</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21">
         <v>6.8</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N21">
         <v>7</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O21">
         <v>6.3</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P21">
         <v>5.2</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21">
         <v>5.6</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21">
         <v>5.7</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21">
         <v>4.9</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Darke County</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
+    <row r="22" spans="1:19">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22">
         <v>6.4</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>6.7</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>6.3</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>6</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>5.6</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>5.6</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>6.5</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>11.4</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>11.3</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22">
         <v>9.199999999999999</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22">
         <v>7.2</v>
       </c>
-      <c r="N22" t="n">
+      <c r="N22">
         <v>7</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O22">
         <v>5.3</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P22">
         <v>4.3</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q22">
         <v>4.1</v>
       </c>
-      <c r="R22" t="n">
+      <c r="R22">
         <v>4.2</v>
       </c>
-      <c r="S22" t="n">
+      <c r="S22">
         <v>3.9</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Defiance County</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
+    <row r="23" spans="1:19">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23">
         <v>6</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>6.3</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>6.3</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>6.2</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>5.6</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>5.6</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>7.6</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>14.1</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>12.2</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23">
         <v>9.6</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23">
         <v>7.7</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N23">
         <v>7.5</v>
       </c>
-      <c r="O23" t="n">
+      <c r="O23">
         <v>5.5</v>
       </c>
-      <c r="P23" t="n">
+      <c r="P23">
         <v>5</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="Q23">
         <v>5</v>
       </c>
-      <c r="R23" t="n">
+      <c r="R23">
         <v>4.9</v>
       </c>
-      <c r="S23" t="n">
+      <c r="S23">
         <v>4.4</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Delaware County</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
+    <row r="24" spans="1:19">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24">
         <v>4.2</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>4.4</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>4.5</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>4.4</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>3.9</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>4</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>4.7</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>7</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24">
         <v>7.3</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24">
         <v>6.2</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24">
         <v>5.2</v>
       </c>
-      <c r="N24" t="n">
+      <c r="N24">
         <v>5.3</v>
       </c>
-      <c r="O24" t="n">
+      <c r="O24">
         <v>4.1</v>
       </c>
-      <c r="P24" t="n">
+      <c r="P24">
         <v>3.6</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="Q24">
         <v>3.6</v>
       </c>
-      <c r="R24" t="n">
+      <c r="R24">
         <v>3.5</v>
       </c>
-      <c r="S24" t="n">
+      <c r="S24">
         <v>3.4</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Erie County</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
+    <row r="25" spans="1:19">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25">
         <v>5.9</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>6.3</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>6.7</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>6.5</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>5.8</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>6.1</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>7.4</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>11.8</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25">
         <v>11.3</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25">
         <v>9.5</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25">
         <v>8</v>
       </c>
-      <c r="N25" t="n">
+      <c r="N25">
         <v>8.1</v>
       </c>
-      <c r="O25" t="n">
+      <c r="O25">
         <v>6.4</v>
       </c>
-      <c r="P25" t="n">
+      <c r="P25">
         <v>5.6</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q25">
         <v>5.5</v>
       </c>
-      <c r="R25" t="n">
+      <c r="R25">
         <v>6.1</v>
       </c>
-      <c r="S25" t="n">
+      <c r="S25">
         <v>5.6</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Fairfield County</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
+    <row r="26" spans="1:19">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26">
         <v>5.3</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>5.6</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>5.8</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>5.5</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>4.8</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>5</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>5.8</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>8.699999999999999</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26">
         <v>9.300000000000001</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L26">
         <v>8.1</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26">
         <v>6.6</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N26">
         <v>6.6</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O26">
         <v>5.2</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P26">
         <v>4.4</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q26">
         <v>4.3</v>
       </c>
-      <c r="R26" t="n">
+      <c r="R26">
         <v>4.3</v>
       </c>
-      <c r="S26" t="n">
+      <c r="S26">
         <v>4.1</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Fayette County</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
+    <row r="27" spans="1:19">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27">
         <v>5.8</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>5.8</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>5.9</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>5.9</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>4.9</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>4.8</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>5.8</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>11.2</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27">
         <v>13.1</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L27">
         <v>10.5</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M27">
         <v>8.300000000000001</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N27">
         <v>7.6</v>
       </c>
-      <c r="O27" t="n">
+      <c r="O27">
         <v>6</v>
       </c>
-      <c r="P27" t="n">
+      <c r="P27">
         <v>5</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q27">
         <v>4.5</v>
       </c>
-      <c r="R27" t="n">
+      <c r="R27">
         <v>4.2</v>
       </c>
-      <c r="S27" t="n">
+      <c r="S27">
         <v>4.1</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Franklin County</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
+    <row r="28" spans="1:19">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28">
         <v>5.2</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>5.5</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>5.6</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>5.4</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>4.7</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>4.7</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>5.6</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>8.5</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28">
         <v>8.9</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L28">
         <v>7.8</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M28">
         <v>6.4</v>
       </c>
-      <c r="N28" t="n">
+      <c r="N28">
         <v>6.4</v>
       </c>
-      <c r="O28" t="n">
+      <c r="O28">
         <v>4.9</v>
       </c>
-      <c r="P28" t="n">
+      <c r="P28">
         <v>4.1</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="Q28">
         <v>4.1</v>
       </c>
-      <c r="R28" t="n">
+      <c r="R28">
         <v>4.1</v>
       </c>
-      <c r="S28" t="n">
+      <c r="S28">
         <v>3.8</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Fulton County</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
+    <row r="29" spans="1:19">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29">
         <v>6.1</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>6.8</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>6.6</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>6.3</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>5.9</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>6.3</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>8.300000000000001</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>13.9</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
         <v>11.9</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L29">
         <v>9.6</v>
       </c>
-      <c r="M29" t="n">
+      <c r="M29">
         <v>7.7</v>
       </c>
-      <c r="N29" t="n">
+      <c r="N29">
         <v>7.9</v>
       </c>
-      <c r="O29" t="n">
+      <c r="O29">
         <v>5.9</v>
       </c>
-      <c r="P29" t="n">
+      <c r="P29">
         <v>4.9</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="Q29">
         <v>4.7</v>
       </c>
-      <c r="R29" t="n">
+      <c r="R29">
         <v>4.9</v>
       </c>
-      <c r="S29" t="n">
+      <c r="S29">
         <v>4.4</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Gallia County</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
+    <row r="30" spans="1:19">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30">
         <v>7.4</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>8.6</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>8.4</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>7.4</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>6.1</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>6.2</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>6.6</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>9.5</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>11.8</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L30">
         <v>11.2</v>
       </c>
-      <c r="M30" t="n">
+      <c r="M30">
         <v>9.699999999999999</v>
       </c>
-      <c r="N30" t="n">
+      <c r="N30">
         <v>9.699999999999999</v>
       </c>
-      <c r="O30" t="n">
+      <c r="O30">
         <v>7.7</v>
       </c>
-      <c r="P30" t="n">
+      <c r="P30">
         <v>6.6</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="Q30">
         <v>6.9</v>
       </c>
-      <c r="R30" t="n">
+      <c r="R30">
         <v>6.6</v>
       </c>
-      <c r="S30" t="n">
+      <c r="S30">
         <v>6</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Geauga County</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
+    <row r="31" spans="1:19">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31">
         <v>3.7</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>4.4</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>4.3</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>4.3</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>4.1</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>4.7</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>5.2</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>6.3</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>6.9</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L31">
         <v>6</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M31">
         <v>5.4</v>
       </c>
-      <c r="N31" t="n">
+      <c r="N31">
         <v>5.8</v>
       </c>
-      <c r="O31" t="n">
+      <c r="O31">
         <v>5</v>
       </c>
-      <c r="P31" t="n">
+      <c r="P31">
         <v>4.2</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="Q31">
         <v>4.5</v>
       </c>
-      <c r="R31" t="n">
+      <c r="R31">
         <v>4.7</v>
       </c>
-      <c r="S31" t="n">
+      <c r="S31">
         <v>4</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Greene County</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
+    <row r="32" spans="1:19">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32">
         <v>5.2</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>5.7</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>5.9</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>5.7</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>5.1</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>5.3</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>6.3</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>9.699999999999999</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32">
         <v>9.6</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L32">
         <v>8.199999999999999</v>
       </c>
-      <c r="M32" t="n">
+      <c r="M32">
         <v>6.9</v>
       </c>
-      <c r="N32" t="n">
+      <c r="N32">
         <v>7</v>
       </c>
-      <c r="O32" t="n">
+      <c r="O32">
         <v>5.2</v>
       </c>
-      <c r="P32" t="n">
+      <c r="P32">
         <v>4.4</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="Q32">
         <v>4.4</v>
       </c>
-      <c r="R32" t="n">
+      <c r="R32">
         <v>4.3</v>
       </c>
-      <c r="S32" t="n">
+      <c r="S32">
         <v>4</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Guernsey County</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
+    <row r="33" spans="1:19">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33">
         <v>6.8</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>7.7</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>8.199999999999999</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>7.4</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>6.5</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>6.4</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>8.699999999999999</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>12.2</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33">
         <v>12.8</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L33">
         <v>10.8</v>
       </c>
-      <c r="M33" t="n">
+      <c r="M33">
         <v>9</v>
       </c>
-      <c r="N33" t="n">
+      <c r="N33">
         <v>8.6</v>
       </c>
-      <c r="O33" t="n">
+      <c r="O33">
         <v>6.7</v>
       </c>
-      <c r="P33" t="n">
+      <c r="P33">
         <v>6.3</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="Q33">
         <v>7.1</v>
       </c>
-      <c r="R33" t="n">
+      <c r="R33">
         <v>6</v>
       </c>
-      <c r="S33" t="n">
+      <c r="S33">
         <v>5.5</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Hamilton County</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
+    <row r="34" spans="1:19">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34">
         <v>5.6</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>5.6</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>5.8</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>5.7</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>5.1</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>5.1</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34">
         <v>5.7</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>9</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34">
         <v>9.9</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L34">
         <v>8.800000000000001</v>
       </c>
-      <c r="M34" t="n">
+      <c r="M34">
         <v>7.4</v>
       </c>
-      <c r="N34" t="n">
+      <c r="N34">
         <v>7.3</v>
       </c>
-      <c r="O34" t="n">
+      <c r="O34">
         <v>5.5</v>
       </c>
-      <c r="P34" t="n">
+      <c r="P34">
         <v>4.5</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="Q34">
         <v>4.5</v>
       </c>
-      <c r="R34" t="n">
+      <c r="R34">
         <v>4.4</v>
       </c>
-      <c r="S34" t="n">
+      <c r="S34">
         <v>4.1</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Hancock County</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
+    <row r="35" spans="1:19">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35">
         <v>4.6</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>5.3</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>5.4</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>5.1</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>4.4</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>4.5</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35">
         <v>6</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>10.4</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35">
         <v>9.1</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L35">
         <v>7.8</v>
       </c>
-      <c r="M35" t="n">
+      <c r="M35">
         <v>6.4</v>
       </c>
-      <c r="N35" t="n">
+      <c r="N35">
         <v>6.2</v>
       </c>
-      <c r="O35" t="n">
+      <c r="O35">
         <v>4.4</v>
       </c>
-      <c r="P35" t="n">
+      <c r="P35">
         <v>3.7</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="Q35">
         <v>3.7</v>
       </c>
-      <c r="R35" t="n">
+      <c r="R35">
         <v>3.6</v>
       </c>
-      <c r="S35" t="n">
+      <c r="S35">
         <v>3.4</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Hardin County</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
+    <row r="36" spans="1:19">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36">
         <v>6</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>6.4</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>6.7</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>6.1</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>5.6</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>6</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>7.3</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>12.2</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36">
         <v>11.2</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L36">
         <v>9.5</v>
       </c>
-      <c r="M36" t="n">
+      <c r="M36">
         <v>7.5</v>
       </c>
-      <c r="N36" t="n">
+      <c r="N36">
         <v>7.7</v>
       </c>
-      <c r="O36" t="n">
+      <c r="O36">
         <v>5.7</v>
       </c>
-      <c r="P36" t="n">
+      <c r="P36">
         <v>4.9</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="Q36">
         <v>5</v>
       </c>
-      <c r="R36" t="n">
+      <c r="R36">
         <v>4.9</v>
       </c>
-      <c r="S36" t="n">
+      <c r="S36">
         <v>4.4</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Harrison County</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
+    <row r="37" spans="1:19">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37">
         <v>7</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>7.8</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>7.4</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>6.7</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>6</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>6.2</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>7.3</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>11.6</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K37">
         <v>12.5</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L37">
         <v>10.6</v>
       </c>
-      <c r="M37" t="n">
+      <c r="M37">
         <v>8.5</v>
       </c>
-      <c r="N37" t="n">
+      <c r="N37">
         <v>7.9</v>
       </c>
-      <c r="O37" t="n">
+      <c r="O37">
         <v>6</v>
       </c>
-      <c r="P37" t="n">
+      <c r="P37">
         <v>6.4</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="Q37">
         <v>7.7</v>
       </c>
-      <c r="R37" t="n">
+      <c r="R37">
         <v>6</v>
       </c>
-      <c r="S37" t="n">
+      <c r="S37">
         <v>5.2</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Henry County</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
+    <row r="38" spans="1:19">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38">
         <v>6.2</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>6.8</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>6.6</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>6.3</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>6</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>6.3</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38">
         <v>8.1</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38">
         <v>13.5</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K38">
         <v>13.1</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L38">
         <v>10.7</v>
       </c>
-      <c r="M38" t="n">
+      <c r="M38">
         <v>8.699999999999999</v>
       </c>
-      <c r="N38" t="n">
+      <c r="N38">
         <v>8.800000000000001</v>
       </c>
-      <c r="O38" t="n">
+      <c r="O38">
         <v>6.5</v>
       </c>
-      <c r="P38" t="n">
+      <c r="P38">
         <v>5.7</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="Q38">
         <v>5.4</v>
       </c>
-      <c r="R38" t="n">
+      <c r="R38">
         <v>5.2</v>
       </c>
-      <c r="S38" t="n">
+      <c r="S38">
         <v>4.9</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Highland County</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
+    <row r="39" spans="1:19">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39">
         <v>6.2</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>6.5</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>6.6</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>6.1</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>5.6</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>6</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>7.5</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>15.5</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K39">
         <v>17.3</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L39">
         <v>13.4</v>
       </c>
-      <c r="M39" t="n">
+      <c r="M39">
         <v>10.4</v>
       </c>
-      <c r="N39" t="n">
+      <c r="N39">
         <v>10.5</v>
       </c>
-      <c r="O39" t="n">
+      <c r="O39">
         <v>7.8</v>
       </c>
-      <c r="P39" t="n">
+      <c r="P39">
         <v>6.4</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="Q39">
         <v>6.4</v>
       </c>
-      <c r="R39" t="n">
+      <c r="R39">
         <v>5.9</v>
       </c>
-      <c r="S39" t="n">
+      <c r="S39">
         <v>5.5</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Hocking County</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
+    <row r="40" spans="1:19">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40">
         <v>6.4</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>7.4</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>8.1</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>7.7</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>6.2</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>6.4</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40">
         <v>7.7</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40">
         <v>11.3</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40">
         <v>11.7</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L40">
         <v>9.9</v>
       </c>
-      <c r="M40" t="n">
+      <c r="M40">
         <v>8.300000000000001</v>
       </c>
-      <c r="N40" t="n">
+      <c r="N40">
         <v>8.1</v>
       </c>
-      <c r="O40" t="n">
+      <c r="O40">
         <v>6.5</v>
       </c>
-      <c r="P40" t="n">
+      <c r="P40">
         <v>5.7</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="Q40">
         <v>5.6</v>
       </c>
-      <c r="R40" t="n">
+      <c r="R40">
         <v>5.4</v>
       </c>
-      <c r="S40" t="n">
+      <c r="S40">
         <v>5.1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Holmes County</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
+    <row r="41" spans="1:19">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41">
         <v>3.9</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>4.2</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>4.3</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>4.1</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>3.8</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>4.1</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I41">
         <v>5</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41">
         <v>7.9</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K41">
         <v>7.7</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L41">
         <v>6.3</v>
       </c>
-      <c r="M41" t="n">
+      <c r="M41">
         <v>5.1</v>
       </c>
-      <c r="N41" t="n">
+      <c r="N41">
         <v>5.2</v>
       </c>
-      <c r="O41" t="n">
+      <c r="O41">
         <v>4</v>
       </c>
-      <c r="P41" t="n">
+      <c r="P41">
         <v>3.5</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="Q41">
         <v>3.6</v>
       </c>
-      <c r="R41" t="n">
+      <c r="R41">
         <v>3.5</v>
       </c>
-      <c r="S41" t="n">
+      <c r="S41">
         <v>3.3</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Huron County</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
+    <row r="42" spans="1:19">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42">
         <v>7.4</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>7.9</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>8.1</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>7.9</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>7.4</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>8.1</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42">
         <v>9.9</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42">
         <v>15.7</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K42">
         <v>13.2</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L42">
         <v>11.4</v>
       </c>
-      <c r="M42" t="n">
+      <c r="M42">
         <v>9.9</v>
       </c>
-      <c r="N42" t="n">
+      <c r="N42">
         <v>10.2</v>
       </c>
-      <c r="O42" t="n">
+      <c r="O42">
         <v>8</v>
       </c>
-      <c r="P42" t="n">
+      <c r="P42">
         <v>6.7</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="Q42">
         <v>6.6</v>
       </c>
-      <c r="R42" t="n">
+      <c r="R42">
         <v>6.4</v>
       </c>
-      <c r="S42" t="n">
+      <c r="S42">
         <v>5.9</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Jackson County</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
+    <row r="43" spans="1:19">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43">
         <v>8</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>8.6</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>8.800000000000001</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>7.6</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>7.4</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>8</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43">
         <v>8.6</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43">
         <v>11.3</v>
       </c>
-      <c r="K43" t="n">
+      <c r="K43">
         <v>12.5</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L43">
         <v>11.8</v>
       </c>
-      <c r="M43" t="n">
+      <c r="M43">
         <v>10.3</v>
       </c>
-      <c r="N43" t="n">
+      <c r="N43">
         <v>10.5</v>
       </c>
-      <c r="O43" t="n">
+      <c r="O43">
         <v>8.800000000000001</v>
       </c>
-      <c r="P43" t="n">
+      <c r="P43">
         <v>7.6</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="Q43">
         <v>7.9</v>
       </c>
-      <c r="R43" t="n">
+      <c r="R43">
         <v>7.1</v>
       </c>
-      <c r="S43" t="n">
+      <c r="S43">
         <v>6.5</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Jefferson County</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
+    <row r="44" spans="1:19">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44">
         <v>7</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>7.5</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>8.4</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>7.7</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>6.9</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>6.4</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44">
         <v>7.1</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J44">
         <v>12.3</v>
       </c>
-      <c r="K44" t="n">
+      <c r="K44">
         <v>14.5</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L44">
         <v>12</v>
       </c>
-      <c r="M44" t="n">
+      <c r="M44">
         <v>10.8</v>
       </c>
-      <c r="N44" t="n">
+      <c r="N44">
         <v>10.9</v>
       </c>
-      <c r="O44" t="n">
+      <c r="O44">
         <v>8.1</v>
       </c>
-      <c r="P44" t="n">
+      <c r="P44">
         <v>7.5</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="Q44">
         <v>8.4</v>
       </c>
-      <c r="R44" t="n">
+      <c r="R44">
         <v>7.3</v>
       </c>
-      <c r="S44" t="n">
+      <c r="S44">
         <v>6.3</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Knox County</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
+    <row r="45" spans="1:19">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45">
         <v>5.5</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>6.4</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>6.1</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>5.8</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>5</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>5.4</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I45">
         <v>6.5</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J45">
         <v>9.800000000000001</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K45">
         <v>9.699999999999999</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L45">
         <v>8.699999999999999</v>
       </c>
-      <c r="M45" t="n">
+      <c r="M45">
         <v>6.9</v>
       </c>
-      <c r="N45" t="n">
+      <c r="N45">
         <v>6.9</v>
       </c>
-      <c r="O45" t="n">
+      <c r="O45">
         <v>5.3</v>
       </c>
-      <c r="P45" t="n">
+      <c r="P45">
         <v>4.7</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="Q45">
         <v>4.7</v>
       </c>
-      <c r="R45" t="n">
+      <c r="R45">
         <v>4.5</v>
       </c>
-      <c r="S45" t="n">
+      <c r="S45">
         <v>4.3</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Lake County</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
+    <row r="46" spans="1:19">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46">
         <v>4.5</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>5.1</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>4.8</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>4.6</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>4.4</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
         <v>5.1</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I46">
         <v>5.5</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46">
         <v>7.3</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K46">
         <v>8</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L46">
         <v>6.8</v>
       </c>
-      <c r="M46" t="n">
+      <c r="M46">
         <v>6</v>
       </c>
-      <c r="N46" t="n">
+      <c r="N46">
         <v>6.3</v>
       </c>
-      <c r="O46" t="n">
+      <c r="O46">
         <v>5.5</v>
       </c>
-      <c r="P46" t="n">
+      <c r="P46">
         <v>4.5</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="Q46">
         <v>4.9</v>
       </c>
-      <c r="R46" t="n">
+      <c r="R46">
         <v>5.1</v>
       </c>
-      <c r="S46" t="n">
+      <c r="S46">
         <v>4.4</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Lawrence County</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
+    <row r="47" spans="1:19">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47">
         <v>6.8</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>6.8</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>6.6</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>6.2</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>5.3</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
         <v>5.3</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47">
         <v>5.5</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47">
         <v>8.300000000000001</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K47">
         <v>10.3</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L47">
         <v>9.5</v>
       </c>
-      <c r="M47" t="n">
+      <c r="M47">
         <v>8.5</v>
       </c>
-      <c r="N47" t="n">
+      <c r="N47">
         <v>8.800000000000001</v>
       </c>
-      <c r="O47" t="n">
+      <c r="O47">
         <v>6.7</v>
       </c>
-      <c r="P47" t="n">
+      <c r="P47">
         <v>5.9</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="Q47">
         <v>6.6</v>
       </c>
-      <c r="R47" t="n">
+      <c r="R47">
         <v>5.9</v>
       </c>
-      <c r="S47" t="n">
+      <c r="S47">
         <v>5.6</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Licking County</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
+    <row r="48" spans="1:19">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48">
         <v>5.3</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>6.2</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>6.2</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>5.9</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>5.1</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
         <v>5.3</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48">
         <v>6.3</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J48">
         <v>9.6</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K48">
         <v>9.6</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L48">
         <v>8.4</v>
       </c>
-      <c r="M48" t="n">
+      <c r="M48">
         <v>6.8</v>
       </c>
-      <c r="N48" t="n">
+      <c r="N48">
         <v>6.9</v>
       </c>
-      <c r="O48" t="n">
+      <c r="O48">
         <v>5.2</v>
       </c>
-      <c r="P48" t="n">
+      <c r="P48">
         <v>4.5</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="Q48">
         <v>4.4</v>
       </c>
-      <c r="R48" t="n">
+      <c r="R48">
         <v>4.2</v>
       </c>
-      <c r="S48" t="n">
+      <c r="S48">
         <v>4</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Logan County</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
+    <row r="49" spans="1:19">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49">
         <v>5.6</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>5.5</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>5.7</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>5.3</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>4.7</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
         <v>5</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I49">
         <v>6.1</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J49">
         <v>12</v>
       </c>
-      <c r="K49" t="n">
+      <c r="K49">
         <v>11.8</v>
       </c>
-      <c r="L49" t="n">
+      <c r="L49">
         <v>9.699999999999999</v>
       </c>
-      <c r="M49" t="n">
+      <c r="M49">
         <v>7.1</v>
       </c>
-      <c r="N49" t="n">
+      <c r="N49">
         <v>6.8</v>
       </c>
-      <c r="O49" t="n">
+      <c r="O49">
         <v>5</v>
       </c>
-      <c r="P49" t="n">
+      <c r="P49">
         <v>4.3</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="Q49">
         <v>4.2</v>
       </c>
-      <c r="R49" t="n">
+      <c r="R49">
         <v>4.1</v>
       </c>
-      <c r="S49" t="n">
+      <c r="S49">
         <v>3.7</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Lorain County</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
+    <row r="50" spans="1:19">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50">
         <v>5</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>5.6</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>5.2</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>5.2</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>5.3</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50">
         <v>6</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I50">
         <v>6.6</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J50">
         <v>8.699999999999999</v>
       </c>
-      <c r="K50" t="n">
+      <c r="K50">
         <v>9.199999999999999</v>
       </c>
-      <c r="L50" t="n">
+      <c r="L50">
         <v>7.8</v>
       </c>
-      <c r="M50" t="n">
+      <c r="M50">
         <v>7.1</v>
       </c>
-      <c r="N50" t="n">
+      <c r="N50">
         <v>7.4</v>
       </c>
-      <c r="O50" t="n">
+      <c r="O50">
         <v>6.5</v>
       </c>
-      <c r="P50" t="n">
+      <c r="P50">
         <v>5.6</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="Q50">
         <v>6</v>
       </c>
-      <c r="R50" t="n">
+      <c r="R50">
         <v>6.1</v>
       </c>
-      <c r="S50" t="n">
+      <c r="S50">
         <v>5</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Lucas County</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
+    <row r="51" spans="1:19">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51">
         <v>7.1</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>7.7</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>7.7</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>7</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>6.3</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51">
         <v>6.8</v>
       </c>
-      <c r="I51" t="n">
+      <c r="I51">
         <v>8.4</v>
       </c>
-      <c r="J51" t="n">
+      <c r="J51">
         <v>12.4</v>
       </c>
-      <c r="K51" t="n">
+      <c r="K51">
         <v>11.6</v>
       </c>
-      <c r="L51" t="n">
+      <c r="L51">
         <v>9.9</v>
       </c>
-      <c r="M51" t="n">
+      <c r="M51">
         <v>8.300000000000001</v>
       </c>
-      <c r="N51" t="n">
+      <c r="N51">
         <v>8.699999999999999</v>
       </c>
-      <c r="O51" t="n">
+      <c r="O51">
         <v>6.4</v>
       </c>
-      <c r="P51" t="n">
+      <c r="P51">
         <v>5.4</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="Q51">
         <v>5.2</v>
       </c>
-      <c r="R51" t="n">
+      <c r="R51">
         <v>5.9</v>
       </c>
-      <c r="S51" t="n">
+      <c r="S51">
         <v>5.2</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Madison County</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
+    <row r="52" spans="1:19">
+      <c r="A52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52">
         <v>5.3</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>5.8</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>6.1</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>6</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>5.3</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52">
         <v>5.3</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I52">
         <v>6.3</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J52">
         <v>9.5</v>
       </c>
-      <c r="K52" t="n">
+      <c r="K52">
         <v>9.1</v>
       </c>
-      <c r="L52" t="n">
+      <c r="L52">
         <v>7.9</v>
       </c>
-      <c r="M52" t="n">
+      <c r="M52">
         <v>6.4</v>
       </c>
-      <c r="N52" t="n">
+      <c r="N52">
         <v>6.2</v>
       </c>
-      <c r="O52" t="n">
+      <c r="O52">
         <v>4.7</v>
       </c>
-      <c r="P52" t="n">
+      <c r="P52">
         <v>4.1</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="Q52">
         <v>4</v>
       </c>
-      <c r="R52" t="n">
+      <c r="R52">
         <v>3.9</v>
       </c>
-      <c r="S52" t="n">
+      <c r="S52">
         <v>3.8</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Mahoning County</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
+    <row r="53" spans="1:19">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53">
         <v>7.3</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>7.7</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>7.8</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>7.1</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>6.4</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53">
         <v>6.3</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I53">
         <v>7.2</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J53">
         <v>12.5</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K53">
         <v>11.7</v>
       </c>
-      <c r="L53" t="n">
+      <c r="L53">
         <v>9.800000000000001</v>
       </c>
-      <c r="M53" t="n">
+      <c r="M53">
         <v>8.300000000000001</v>
       </c>
-      <c r="N53" t="n">
+      <c r="N53">
         <v>8.5</v>
       </c>
-      <c r="O53" t="n">
+      <c r="O53">
         <v>6.7</v>
       </c>
-      <c r="P53" t="n">
+      <c r="P53">
         <v>6.2</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="Q53">
         <v>6.4</v>
       </c>
-      <c r="R53" t="n">
+      <c r="R53">
         <v>6.9</v>
       </c>
-      <c r="S53" t="n">
+      <c r="S53">
         <v>5.9</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Marion County</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
+    <row r="54" spans="1:19">
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54">
         <v>5.9</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>6.4</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>6.8</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>6.3</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>5.4</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54">
         <v>5.5</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I54">
         <v>7.1</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J54">
         <v>11.5</v>
       </c>
-      <c r="K54" t="n">
+      <c r="K54">
         <v>11</v>
       </c>
-      <c r="L54" t="n">
+      <c r="L54">
         <v>9.9</v>
       </c>
-      <c r="M54" t="n">
+      <c r="M54">
         <v>7.9</v>
       </c>
-      <c r="N54" t="n">
+      <c r="N54">
         <v>7.9</v>
       </c>
-      <c r="O54" t="n">
+      <c r="O54">
         <v>6</v>
       </c>
-      <c r="P54" t="n">
+      <c r="P54">
         <v>5.2</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="Q54">
         <v>5.1</v>
       </c>
-      <c r="R54" t="n">
+      <c r="R54">
         <v>5</v>
       </c>
-      <c r="S54" t="n">
+      <c r="S54">
         <v>4.4</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Medina County</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
+    <row r="55" spans="1:19">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55">
         <v>4</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>4.6</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>4.5</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>4.4</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>4.3</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H55">
         <v>5</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I55">
         <v>5.5</v>
       </c>
-      <c r="J55" t="n">
+      <c r="J55">
         <v>7</v>
       </c>
-      <c r="K55" t="n">
+      <c r="K55">
         <v>7.5</v>
       </c>
-      <c r="L55" t="n">
+      <c r="L55">
         <v>6.4</v>
       </c>
-      <c r="M55" t="n">
+      <c r="M55">
         <v>5.5</v>
       </c>
-      <c r="N55" t="n">
+      <c r="N55">
         <v>5.8</v>
       </c>
-      <c r="O55" t="n">
+      <c r="O55">
         <v>5.1</v>
       </c>
-      <c r="P55" t="n">
+      <c r="P55">
         <v>4.2</v>
       </c>
-      <c r="Q55" t="n">
+      <c r="Q55">
         <v>4.4</v>
       </c>
-      <c r="R55" t="n">
+      <c r="R55">
         <v>4.6</v>
       </c>
-      <c r="S55" t="n">
+      <c r="S55">
         <v>3.9</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Meigs County</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
+    <row r="56" spans="1:19">
+      <c r="A56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56">
         <v>9.199999999999999</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>11.5</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>11.2</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>10.1</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>8.4</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56">
         <v>9</v>
       </c>
-      <c r="I56" t="n">
+      <c r="I56">
         <v>10.2</v>
       </c>
-      <c r="J56" t="n">
+      <c r="J56">
         <v>14.9</v>
       </c>
-      <c r="K56" t="n">
+      <c r="K56">
         <v>14.7</v>
       </c>
-      <c r="L56" t="n">
+      <c r="L56">
         <v>13.1</v>
       </c>
-      <c r="M56" t="n">
+      <c r="M56">
         <v>11.5</v>
       </c>
-      <c r="N56" t="n">
+      <c r="N56">
         <v>11.8</v>
       </c>
-      <c r="O56" t="n">
+      <c r="O56">
         <v>9</v>
       </c>
-      <c r="P56" t="n">
+      <c r="P56">
         <v>8.300000000000001</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="Q56">
         <v>8.6</v>
       </c>
-      <c r="R56" t="n">
+      <c r="R56">
         <v>8.1</v>
       </c>
-      <c r="S56" t="n">
+      <c r="S56">
         <v>7.2</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Mercer County</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
+    <row r="57" spans="1:19">
+      <c r="A57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57">
         <v>5.3</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>4.7</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>4.7</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>4.1</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>3.7</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H57">
         <v>3.9</v>
       </c>
-      <c r="I57" t="n">
+      <c r="I57">
         <v>5</v>
       </c>
-      <c r="J57" t="n">
+      <c r="J57">
         <v>8.9</v>
       </c>
-      <c r="K57" t="n">
+      <c r="K57">
         <v>8.5</v>
       </c>
-      <c r="L57" t="n">
+      <c r="L57">
         <v>6.8</v>
       </c>
-      <c r="M57" t="n">
+      <c r="M57">
         <v>5.1</v>
       </c>
-      <c r="N57" t="n">
+      <c r="N57">
         <v>5.1</v>
       </c>
-      <c r="O57" t="n">
+      <c r="O57">
         <v>3.8</v>
       </c>
-      <c r="P57" t="n">
+      <c r="P57">
         <v>3.3</v>
       </c>
-      <c r="Q57" t="n">
+      <c r="Q57">
         <v>3.3</v>
       </c>
-      <c r="R57" t="n">
+      <c r="R57">
         <v>3.1</v>
       </c>
-      <c r="S57" t="n">
+      <c r="S57">
         <v>2.7</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Miami County</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
+    <row r="58" spans="1:19">
+      <c r="A58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58">
         <v>5.8</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>6.1</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>6</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>5.8</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>5.4</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58">
         <v>5.4</v>
       </c>
-      <c r="I58" t="n">
+      <c r="I58">
         <v>6.5</v>
       </c>
-      <c r="J58" t="n">
+      <c r="J58">
         <v>11.8</v>
       </c>
-      <c r="K58" t="n">
+      <c r="K58">
         <v>11.1</v>
       </c>
-      <c r="L58" t="n">
+      <c r="L58">
         <v>9.1</v>
       </c>
-      <c r="M58" t="n">
+      <c r="M58">
         <v>7.3</v>
       </c>
-      <c r="N58" t="n">
+      <c r="N58">
         <v>7.2</v>
       </c>
-      <c r="O58" t="n">
+      <c r="O58">
         <v>5.4</v>
       </c>
-      <c r="P58" t="n">
+      <c r="P58">
         <v>4.4</v>
       </c>
-      <c r="Q58" t="n">
+      <c r="Q58">
         <v>4.4</v>
       </c>
-      <c r="R58" t="n">
+      <c r="R58">
         <v>4.2</v>
       </c>
-      <c r="S58" t="n">
+      <c r="S58">
         <v>3.9</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Monroe County</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
+    <row r="59" spans="1:19">
+      <c r="A59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59">
         <v>8</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>8.5</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>11.3</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>13.6</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>11.1</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H59">
         <v>8.199999999999999</v>
       </c>
-      <c r="I59" t="n">
+      <c r="I59">
         <v>8.699999999999999</v>
       </c>
-      <c r="J59" t="n">
+      <c r="J59">
         <v>12.7</v>
       </c>
-      <c r="K59" t="n">
+      <c r="K59">
         <v>12.3</v>
       </c>
-      <c r="L59" t="n">
+      <c r="L59">
         <v>9.800000000000001</v>
       </c>
-      <c r="M59" t="n">
+      <c r="M59">
         <v>8.4</v>
       </c>
-      <c r="N59" t="n">
+      <c r="N59">
         <v>10</v>
       </c>
-      <c r="O59" t="n">
+      <c r="O59">
         <v>11</v>
       </c>
-      <c r="P59" t="n">
+      <c r="P59">
         <v>10</v>
       </c>
-      <c r="Q59" t="n">
+      <c r="Q59">
         <v>11.2</v>
       </c>
-      <c r="R59" t="n">
+      <c r="R59">
         <v>8.4</v>
       </c>
-      <c r="S59" t="n">
+      <c r="S59">
         <v>7.7</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Montgomery County</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
+    <row r="60" spans="1:19">
+      <c r="A60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60">
         <v>6.2</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>6.6</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>6.8</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>6.5</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>6</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H60">
         <v>6.2</v>
       </c>
-      <c r="I60" t="n">
+      <c r="I60">
         <v>7.6</v>
       </c>
-      <c r="J60" t="n">
+      <c r="J60">
         <v>11.6</v>
       </c>
-      <c r="K60" t="n">
+      <c r="K60">
         <v>11.4</v>
       </c>
-      <c r="L60" t="n">
+      <c r="L60">
         <v>9.699999999999999</v>
       </c>
-      <c r="M60" t="n">
+      <c r="M60">
         <v>8.199999999999999</v>
       </c>
-      <c r="N60" t="n">
+      <c r="N60">
         <v>8.300000000000001</v>
       </c>
-      <c r="O60" t="n">
+      <c r="O60">
         <v>6.1</v>
       </c>
-      <c r="P60" t="n">
+      <c r="P60">
         <v>5.1</v>
       </c>
-      <c r="Q60" t="n">
+      <c r="Q60">
         <v>5</v>
       </c>
-      <c r="R60" t="n">
+      <c r="R60">
         <v>4.9</v>
       </c>
-      <c r="S60" t="n">
+      <c r="S60">
         <v>4.5</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Morgan County</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
+    <row r="61" spans="1:19">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61">
         <v>9.199999999999999</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>10.3</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>10.9</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>10.2</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>9.1</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H61">
         <v>9.4</v>
       </c>
-      <c r="I61" t="n">
+      <c r="I61">
         <v>10.4</v>
       </c>
-      <c r="J61" t="n">
+      <c r="J61">
         <v>14.6</v>
       </c>
-      <c r="K61" t="n">
+      <c r="K61">
         <v>13.4</v>
       </c>
-      <c r="L61" t="n">
+      <c r="L61">
         <v>11.3</v>
       </c>
-      <c r="M61" t="n">
+      <c r="M61">
         <v>9.9</v>
       </c>
-      <c r="N61" t="n">
+      <c r="N61">
         <v>10.1</v>
       </c>
-      <c r="O61" t="n">
+      <c r="O61">
         <v>7.8</v>
       </c>
-      <c r="P61" t="n">
+      <c r="P61">
         <v>7.4</v>
       </c>
-      <c r="Q61" t="n">
+      <c r="Q61">
         <v>8.300000000000001</v>
       </c>
-      <c r="R61" t="n">
+      <c r="R61">
         <v>6.8</v>
       </c>
-      <c r="S61" t="n">
+      <c r="S61">
         <v>6</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Morrow County</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
+    <row r="62" spans="1:19">
+      <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62">
         <v>5.6</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>6.4</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>6.4</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>6.5</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>5.7</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H62">
         <v>5.9</v>
       </c>
-      <c r="I62" t="n">
+      <c r="I62">
         <v>7.2</v>
       </c>
-      <c r="J62" t="n">
+      <c r="J62">
         <v>11.2</v>
       </c>
-      <c r="K62" t="n">
+      <c r="K62">
         <v>11.5</v>
       </c>
-      <c r="L62" t="n">
+      <c r="L62">
         <v>10.1</v>
       </c>
-      <c r="M62" t="n">
+      <c r="M62">
         <v>8.1</v>
       </c>
-      <c r="N62" t="n">
+      <c r="N62">
         <v>8</v>
       </c>
-      <c r="O62" t="n">
+      <c r="O62">
         <v>5.9</v>
       </c>
-      <c r="P62" t="n">
+      <c r="P62">
         <v>5.1</v>
       </c>
-      <c r="Q62" t="n">
+      <c r="Q62">
         <v>5.1</v>
       </c>
-      <c r="R62" t="n">
+      <c r="R62">
         <v>4.9</v>
       </c>
-      <c r="S62" t="n">
+      <c r="S62">
         <v>4.6</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Muskingum County</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
+    <row r="63" spans="1:19">
+      <c r="A63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63">
         <v>6.9</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>7.6</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>8.699999999999999</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>8.6</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>7.2</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H63">
         <v>7.8</v>
       </c>
-      <c r="I63" t="n">
+      <c r="I63">
         <v>8.800000000000001</v>
       </c>
-      <c r="J63" t="n">
+      <c r="J63">
         <v>12.6</v>
       </c>
-      <c r="K63" t="n">
+      <c r="K63">
         <v>12.6</v>
       </c>
-      <c r="L63" t="n">
+      <c r="L63">
         <v>10.9</v>
       </c>
-      <c r="M63" t="n">
+      <c r="M63">
         <v>9.199999999999999</v>
       </c>
-      <c r="N63" t="n">
+      <c r="N63">
         <v>9.1</v>
       </c>
-      <c r="O63" t="n">
+      <c r="O63">
         <v>7.1</v>
       </c>
-      <c r="P63" t="n">
+      <c r="P63">
         <v>6.3</v>
       </c>
-      <c r="Q63" t="n">
+      <c r="Q63">
         <v>6.1</v>
       </c>
-      <c r="R63" t="n">
+      <c r="R63">
         <v>5.7</v>
       </c>
-      <c r="S63" t="n">
+      <c r="S63">
         <v>5.3</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Noble County</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
+    <row r="64" spans="1:19">
+      <c r="A64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64">
         <v>7.5</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>8.9</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>8.9</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>8.4</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>7.2</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H64">
         <v>7.4</v>
       </c>
-      <c r="I64" t="n">
+      <c r="I64">
         <v>8.699999999999999</v>
       </c>
-      <c r="J64" t="n">
+      <c r="J64">
         <v>14.5</v>
       </c>
-      <c r="K64" t="n">
+      <c r="K64">
         <v>16</v>
       </c>
-      <c r="L64" t="n">
+      <c r="L64">
         <v>13.3</v>
       </c>
-      <c r="M64" t="n">
+      <c r="M64">
         <v>11</v>
       </c>
-      <c r="N64" t="n">
+      <c r="N64">
         <v>9.6</v>
       </c>
-      <c r="O64" t="n">
+      <c r="O64">
         <v>7.6</v>
       </c>
-      <c r="P64" t="n">
+      <c r="P64">
         <v>7.4</v>
       </c>
-      <c r="Q64" t="n">
+      <c r="Q64">
         <v>8.800000000000001</v>
       </c>
-      <c r="R64" t="n">
+      <c r="R64">
         <v>7.2</v>
       </c>
-      <c r="S64" t="n">
+      <c r="S64">
         <v>6.7</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Ottawa County</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
+    <row r="65" spans="1:19">
+      <c r="A65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65">
         <v>7.5</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>8.300000000000001</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>8.4</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>7.9</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>6.9</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H65">
         <v>7.2</v>
       </c>
-      <c r="I65" t="n">
+      <c r="I65">
         <v>8.9</v>
       </c>
-      <c r="J65" t="n">
+      <c r="J65">
         <v>14.3</v>
       </c>
-      <c r="K65" t="n">
+      <c r="K65">
         <v>12.4</v>
       </c>
-      <c r="L65" t="n">
+      <c r="L65">
         <v>11</v>
       </c>
-      <c r="M65" t="n">
+      <c r="M65">
         <v>9.5</v>
       </c>
-      <c r="N65" t="n">
+      <c r="N65">
         <v>9.699999999999999</v>
       </c>
-      <c r="O65" t="n">
+      <c r="O65">
         <v>7.6</v>
       </c>
-      <c r="P65" t="n">
+      <c r="P65">
         <v>6.7</v>
       </c>
-      <c r="Q65" t="n">
+      <c r="Q65">
         <v>6.5</v>
       </c>
-      <c r="R65" t="n">
+      <c r="R65">
         <v>6.7</v>
       </c>
-      <c r="S65" t="n">
+      <c r="S65">
         <v>6.3</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Paulding County</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
+    <row r="66" spans="1:19">
+      <c r="A66" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66">
         <v>5.7</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>6.5</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>6</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>5.5</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>4.9</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H66">
         <v>5</v>
       </c>
-      <c r="I66" t="n">
+      <c r="I66">
         <v>7.2</v>
       </c>
-      <c r="J66" t="n">
+      <c r="J66">
         <v>13.8</v>
       </c>
-      <c r="K66" t="n">
+      <c r="K66">
         <v>12.6</v>
       </c>
-      <c r="L66" t="n">
+      <c r="L66">
         <v>9.699999999999999</v>
       </c>
-      <c r="M66" t="n">
+      <c r="M66">
         <v>7.7</v>
       </c>
-      <c r="N66" t="n">
+      <c r="N66">
         <v>7.6</v>
       </c>
-      <c r="O66" t="n">
+      <c r="O66">
         <v>5.5</v>
       </c>
-      <c r="P66" t="n">
+      <c r="P66">
         <v>4.8</v>
       </c>
-      <c r="Q66" t="n">
+      <c r="Q66">
         <v>4.6</v>
       </c>
-      <c r="R66" t="n">
+      <c r="R66">
         <v>4.4</v>
       </c>
-      <c r="S66" t="n">
+      <c r="S66">
         <v>4.1</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Perry County</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
+    <row r="67" spans="1:19">
+      <c r="A67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67">
         <v>7.1</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>8.1</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>9.199999999999999</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>8.4</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>7.4</v>
       </c>
-      <c r="H67" t="n">
+      <c r="H67">
         <v>7.4</v>
       </c>
-      <c r="I67" t="n">
+      <c r="I67">
         <v>8.6</v>
       </c>
-      <c r="J67" t="n">
+      <c r="J67">
         <v>13.4</v>
       </c>
-      <c r="K67" t="n">
+      <c r="K67">
         <v>13.4</v>
       </c>
-      <c r="L67" t="n">
+      <c r="L67">
         <v>11.6</v>
       </c>
-      <c r="M67" t="n">
+      <c r="M67">
         <v>9.800000000000001</v>
       </c>
-      <c r="N67" t="n">
+      <c r="N67">
         <v>9.6</v>
       </c>
-      <c r="O67" t="n">
+      <c r="O67">
         <v>7.4</v>
       </c>
-      <c r="P67" t="n">
+      <c r="P67">
         <v>6.6</v>
       </c>
-      <c r="Q67" t="n">
+      <c r="Q67">
         <v>6.4</v>
       </c>
-      <c r="R67" t="n">
+      <c r="R67">
         <v>6</v>
       </c>
-      <c r="S67" t="n">
+      <c r="S67">
         <v>5.6</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Pickaway County</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
+    <row r="68" spans="1:19">
+      <c r="A68" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68">
         <v>6.3</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>6.8</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>7.6</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>7.2</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>5.8</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H68">
         <v>6.1</v>
       </c>
-      <c r="I68" t="n">
+      <c r="I68">
         <v>7.2</v>
       </c>
-      <c r="J68" t="n">
+      <c r="J68">
         <v>11.1</v>
       </c>
-      <c r="K68" t="n">
+      <c r="K68">
         <v>10.6</v>
       </c>
-      <c r="L68" t="n">
+      <c r="L68">
         <v>9.199999999999999</v>
       </c>
-      <c r="M68" t="n">
+      <c r="M68">
         <v>7.4</v>
       </c>
-      <c r="N68" t="n">
+      <c r="N68">
         <v>7.3</v>
       </c>
-      <c r="O68" t="n">
+      <c r="O68">
         <v>5.7</v>
       </c>
-      <c r="P68" t="n">
+      <c r="P68">
         <v>4.8</v>
       </c>
-      <c r="Q68" t="n">
+      <c r="Q68">
         <v>4.9</v>
       </c>
-      <c r="R68" t="n">
+      <c r="R68">
         <v>4.7</v>
       </c>
-      <c r="S68" t="n">
+      <c r="S68">
         <v>4.3</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Pike County</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
+    <row r="69" spans="1:19">
+      <c r="A69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69">
         <v>9.699999999999999</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>10.5</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>10.7</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>10.3</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>8.9</v>
       </c>
-      <c r="H69" t="n">
+      <c r="H69">
         <v>9.5</v>
       </c>
-      <c r="I69" t="n">
+      <c r="I69">
         <v>10.3</v>
       </c>
-      <c r="J69" t="n">
+      <c r="J69">
         <v>15.3</v>
       </c>
-      <c r="K69" t="n">
+      <c r="K69">
         <v>14.8</v>
       </c>
-      <c r="L69" t="n">
+      <c r="L69">
         <v>15.2</v>
       </c>
-      <c r="M69" t="n">
+      <c r="M69">
         <v>13</v>
       </c>
-      <c r="N69" t="n">
+      <c r="N69">
         <v>12.2</v>
       </c>
-      <c r="O69" t="n">
+      <c r="O69">
         <v>9.1</v>
       </c>
-      <c r="P69" t="n">
+      <c r="P69">
         <v>7.4</v>
       </c>
-      <c r="Q69" t="n">
+      <c r="Q69">
         <v>7.6</v>
       </c>
-      <c r="R69" t="n">
+      <c r="R69">
         <v>7</v>
       </c>
-      <c r="S69" t="n">
+      <c r="S69">
         <v>6.5</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Portage County</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
+    <row r="70" spans="1:19">
+      <c r="A70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70">
         <v>5.6</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>6</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>6</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>5.8</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>5.1</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H70">
         <v>5.3</v>
       </c>
-      <c r="I70" t="n">
+      <c r="I70">
         <v>6.3</v>
       </c>
-      <c r="J70" t="n">
+      <c r="J70">
         <v>10.1</v>
       </c>
-      <c r="K70" t="n">
+      <c r="K70">
         <v>10.4</v>
       </c>
-      <c r="L70" t="n">
+      <c r="L70">
         <v>8.9</v>
       </c>
-      <c r="M70" t="n">
+      <c r="M70">
         <v>7.3</v>
       </c>
-      <c r="N70" t="n">
+      <c r="N70">
         <v>7.7</v>
       </c>
-      <c r="O70" t="n">
+      <c r="O70">
         <v>5.9</v>
       </c>
-      <c r="P70" t="n">
+      <c r="P70">
         <v>4.9</v>
       </c>
-      <c r="Q70" t="n">
+      <c r="Q70">
         <v>5.1</v>
       </c>
-      <c r="R70" t="n">
+      <c r="R70">
         <v>5</v>
       </c>
-      <c r="S70" t="n">
+      <c r="S70">
         <v>4.6</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Preble County</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
+    <row r="71" spans="1:19">
+      <c r="A71" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71">
         <v>6.2</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>6.2</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>6.4</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>6</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>6</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H71">
         <v>5.8</v>
       </c>
-      <c r="I71" t="n">
+      <c r="I71">
         <v>7</v>
       </c>
-      <c r="J71" t="n">
+      <c r="J71">
         <v>12.3</v>
       </c>
-      <c r="K71" t="n">
+      <c r="K71">
         <v>11</v>
       </c>
-      <c r="L71" t="n">
+      <c r="L71">
         <v>9.5</v>
       </c>
-      <c r="M71" t="n">
+      <c r="M71">
         <v>7.7</v>
       </c>
-      <c r="N71" t="n">
+      <c r="N71">
         <v>7.5</v>
       </c>
-      <c r="O71" t="n">
+      <c r="O71">
         <v>5.7</v>
       </c>
-      <c r="P71" t="n">
+      <c r="P71">
         <v>4.9</v>
       </c>
-      <c r="Q71" t="n">
+      <c r="Q71">
         <v>4.8</v>
       </c>
-      <c r="R71" t="n">
+      <c r="R71">
         <v>4.4</v>
       </c>
-      <c r="S71" t="n">
+      <c r="S71">
         <v>4.1</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Putnam County</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
+    <row r="72" spans="1:19">
+      <c r="A72" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72">
         <v>4.8</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>6.6</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>6.9</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>5.4</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>4.7</v>
       </c>
-      <c r="H72" t="n">
+      <c r="H72">
         <v>4.8</v>
       </c>
-      <c r="I72" t="n">
+      <c r="I72">
         <v>5.9</v>
       </c>
-      <c r="J72" t="n">
+      <c r="J72">
         <v>10.7</v>
       </c>
-      <c r="K72" t="n">
+      <c r="K72">
         <v>9.300000000000001</v>
       </c>
-      <c r="L72" t="n">
+      <c r="L72">
         <v>7.4</v>
       </c>
-      <c r="M72" t="n">
+      <c r="M72">
         <v>5.8</v>
       </c>
-      <c r="N72" t="n">
+      <c r="N72">
         <v>6</v>
       </c>
-      <c r="O72" t="n">
+      <c r="O72">
         <v>4.5</v>
       </c>
-      <c r="P72" t="n">
+      <c r="P72">
         <v>3.9</v>
       </c>
-      <c r="Q72" t="n">
+      <c r="Q72">
         <v>3.7</v>
       </c>
-      <c r="R72" t="n">
+      <c r="R72">
         <v>3.5</v>
       </c>
-      <c r="S72" t="n">
+      <c r="S72">
         <v>3.3</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Richland County</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
+    <row r="73" spans="1:19">
+      <c r="A73" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73">
         <v>6.9</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>7.4</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>7.5</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>6.8</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>6</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H73">
         <v>6.5</v>
       </c>
-      <c r="I73" t="n">
+      <c r="I73">
         <v>7.5</v>
       </c>
-      <c r="J73" t="n">
+      <c r="J73">
         <v>12.9</v>
       </c>
-      <c r="K73" t="n">
+      <c r="K73">
         <v>12.2</v>
       </c>
-      <c r="L73" t="n">
+      <c r="L73">
         <v>10.6</v>
       </c>
-      <c r="M73" t="n">
+      <c r="M73">
         <v>8.699999999999999</v>
       </c>
-      <c r="N73" t="n">
+      <c r="N73">
         <v>8.6</v>
       </c>
-      <c r="O73" t="n">
+      <c r="O73">
         <v>6.5</v>
       </c>
-      <c r="P73" t="n">
+      <c r="P73">
         <v>5.6</v>
       </c>
-      <c r="Q73" t="n">
+      <c r="Q73">
         <v>5.6</v>
       </c>
-      <c r="R73" t="n">
+      <c r="R73">
         <v>5.4</v>
       </c>
-      <c r="S73" t="n">
+      <c r="S73">
         <v>4.9</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Ross County</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
+    <row r="74" spans="1:19">
+      <c r="A74" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74">
         <v>6.9</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>7.8</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>8.1</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>7.5</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>6.2</v>
       </c>
-      <c r="H74" t="n">
+      <c r="H74">
         <v>6.9</v>
       </c>
-      <c r="I74" t="n">
+      <c r="I74">
         <v>8</v>
       </c>
-      <c r="J74" t="n">
+      <c r="J74">
         <v>12.2</v>
       </c>
-      <c r="K74" t="n">
+      <c r="K74">
         <v>12</v>
       </c>
-      <c r="L74" t="n">
+      <c r="L74">
         <v>9.9</v>
       </c>
-      <c r="M74" t="n">
+      <c r="M74">
         <v>8.4</v>
       </c>
-      <c r="N74" t="n">
+      <c r="N74">
         <v>8.699999999999999</v>
       </c>
-      <c r="O74" t="n">
+      <c r="O74">
         <v>6.4</v>
       </c>
-      <c r="P74" t="n">
+      <c r="P74">
         <v>5.4</v>
       </c>
-      <c r="Q74" t="n">
+      <c r="Q74">
         <v>5.6</v>
       </c>
-      <c r="R74" t="n">
+      <c r="R74">
         <v>5.1</v>
       </c>
-      <c r="S74" t="n">
+      <c r="S74">
         <v>4.5</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Sandusky County</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
+    <row r="75" spans="1:19">
+      <c r="A75" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" t="s">
+        <v>94</v>
+      </c>
+      <c r="C75">
         <v>6.1</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>6.7</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>6.7</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>6.4</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>5.7</v>
       </c>
-      <c r="H75" t="n">
+      <c r="H75">
         <v>6.1</v>
       </c>
-      <c r="I75" t="n">
+      <c r="I75">
         <v>7.3</v>
       </c>
-      <c r="J75" t="n">
+      <c r="J75">
         <v>12.2</v>
       </c>
-      <c r="K75" t="n">
+      <c r="K75">
         <v>10.8</v>
       </c>
-      <c r="L75" t="n">
+      <c r="L75">
         <v>9.1</v>
       </c>
-      <c r="M75" t="n">
+      <c r="M75">
         <v>7.5</v>
       </c>
-      <c r="N75" t="n">
+      <c r="N75">
         <v>7.5</v>
       </c>
-      <c r="O75" t="n">
+      <c r="O75">
         <v>5.7</v>
       </c>
-      <c r="P75" t="n">
+      <c r="P75">
         <v>4.9</v>
       </c>
-      <c r="Q75" t="n">
+      <c r="Q75">
         <v>4.8</v>
       </c>
-      <c r="R75" t="n">
+      <c r="R75">
         <v>4.7</v>
       </c>
-      <c r="S75" t="n">
+      <c r="S75">
         <v>4.5</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Scioto County</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
+    <row r="76" spans="1:19">
+      <c r="A76" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76">
         <v>8.4</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>9</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>9.300000000000001</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>8.9</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>7.6</v>
       </c>
-      <c r="H76" t="n">
+      <c r="H76">
         <v>7.5</v>
       </c>
-      <c r="I76" t="n">
+      <c r="I76">
         <v>8.5</v>
       </c>
-      <c r="J76" t="n">
+      <c r="J76">
         <v>12.5</v>
       </c>
-      <c r="K76" t="n">
+      <c r="K76">
         <v>13.4</v>
       </c>
-      <c r="L76" t="n">
+      <c r="L76">
         <v>12.5</v>
       </c>
-      <c r="M76" t="n">
+      <c r="M76">
         <v>11.3</v>
       </c>
-      <c r="N76" t="n">
+      <c r="N76">
         <v>11.9</v>
       </c>
-      <c r="O76" t="n">
+      <c r="O76">
         <v>8.800000000000001</v>
       </c>
-      <c r="P76" t="n">
+      <c r="P76">
         <v>7.7</v>
       </c>
-      <c r="Q76" t="n">
+      <c r="Q76">
         <v>7.8</v>
       </c>
-      <c r="R76" t="n">
+      <c r="R76">
         <v>7</v>
       </c>
-      <c r="S76" t="n">
+      <c r="S76">
         <v>6.7</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Seneca County</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
+    <row r="77" spans="1:19">
+      <c r="A77" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" t="s">
+        <v>96</v>
+      </c>
+      <c r="C77">
         <v>7</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>6.6</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>7</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>6.2</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>5.3</v>
       </c>
-      <c r="H77" t="n">
+      <c r="H77">
         <v>5.7</v>
       </c>
-      <c r="I77" t="n">
+      <c r="I77">
         <v>7.2</v>
       </c>
-      <c r="J77" t="n">
+      <c r="J77">
         <v>12.7</v>
       </c>
-      <c r="K77" t="n">
+      <c r="K77">
         <v>12</v>
       </c>
-      <c r="L77" t="n">
+      <c r="L77">
         <v>9.6</v>
       </c>
-      <c r="M77" t="n">
+      <c r="M77">
         <v>8</v>
       </c>
-      <c r="N77" t="n">
+      <c r="N77">
         <v>7.7</v>
       </c>
-      <c r="O77" t="n">
+      <c r="O77">
         <v>5.7</v>
       </c>
-      <c r="P77" t="n">
+      <c r="P77">
         <v>4.9</v>
       </c>
-      <c r="Q77" t="n">
+      <c r="Q77">
         <v>4.9</v>
       </c>
-      <c r="R77" t="n">
+      <c r="R77">
         <v>4.7</v>
       </c>
-      <c r="S77" t="n">
+      <c r="S77">
         <v>4.4</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Shelby County</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
+    <row r="78" spans="1:19">
+      <c r="A78" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78">
         <v>5.5</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>5.7</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>5.2</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>4.8</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>4.2</v>
       </c>
-      <c r="H78" t="n">
+      <c r="H78">
         <v>4.8</v>
       </c>
-      <c r="I78" t="n">
+      <c r="I78">
         <v>6.3</v>
       </c>
-      <c r="J78" t="n">
+      <c r="J78">
         <v>13.7</v>
       </c>
-      <c r="K78" t="n">
+      <c r="K78">
         <v>12.5</v>
       </c>
-      <c r="L78" t="n">
+      <c r="L78">
         <v>9.6</v>
       </c>
-      <c r="M78" t="n">
+      <c r="M78">
         <v>7.3</v>
       </c>
-      <c r="N78" t="n">
+      <c r="N78">
         <v>6.7</v>
       </c>
-      <c r="O78" t="n">
+      <c r="O78">
         <v>5.1</v>
       </c>
-      <c r="P78" t="n">
+      <c r="P78">
         <v>4.3</v>
       </c>
-      <c r="Q78" t="n">
+      <c r="Q78">
         <v>4.2</v>
       </c>
-      <c r="R78" t="n">
+      <c r="R78">
         <v>4.1</v>
       </c>
-      <c r="S78" t="n">
+      <c r="S78">
         <v>3.8</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Stark County</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
+    <row r="79" spans="1:19">
+      <c r="A79" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79">
         <v>6.1</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>7</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>6.9</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>6.6</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>5.8</v>
       </c>
-      <c r="H79" t="n">
+      <c r="H79">
         <v>5.8</v>
       </c>
-      <c r="I79" t="n">
+      <c r="I79">
         <v>6.9</v>
       </c>
-      <c r="J79" t="n">
+      <c r="J79">
         <v>11.4</v>
       </c>
-      <c r="K79" t="n">
+      <c r="K79">
         <v>11.4</v>
       </c>
-      <c r="L79" t="n">
+      <c r="L79">
         <v>9.300000000000001</v>
       </c>
-      <c r="M79" t="n">
+      <c r="M79">
         <v>7.5</v>
       </c>
-      <c r="N79" t="n">
+      <c r="N79">
         <v>7.5</v>
       </c>
-      <c r="O79" t="n">
+      <c r="O79">
         <v>5.8</v>
       </c>
-      <c r="P79" t="n">
+      <c r="P79">
         <v>5.3</v>
       </c>
-      <c r="Q79" t="n">
+      <c r="Q79">
         <v>5.5</v>
       </c>
-      <c r="R79" t="n">
+      <c r="R79">
         <v>5.2</v>
       </c>
-      <c r="S79" t="n">
+      <c r="S79">
         <v>4.9</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Summit County</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
+    <row r="80" spans="1:19">
+      <c r="A80" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80" t="s">
+        <v>99</v>
+      </c>
+      <c r="C80">
         <v>6.2</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>6.3</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>6.3</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>5.9</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>5.3</v>
       </c>
-      <c r="H80" t="n">
+      <c r="H80">
         <v>5.4</v>
       </c>
-      <c r="I80" t="n">
+      <c r="I80">
         <v>6.2</v>
       </c>
-      <c r="J80" t="n">
+      <c r="J80">
         <v>10</v>
       </c>
-      <c r="K80" t="n">
+      <c r="K80">
         <v>10.6</v>
       </c>
-      <c r="L80" t="n">
+      <c r="L80">
         <v>9.1</v>
       </c>
-      <c r="M80" t="n">
+      <c r="M80">
         <v>7.5</v>
       </c>
-      <c r="N80" t="n">
+      <c r="N80">
         <v>7.6</v>
       </c>
-      <c r="O80" t="n">
+      <c r="O80">
         <v>5.9</v>
       </c>
-      <c r="P80" t="n">
+      <c r="P80">
         <v>5</v>
       </c>
-      <c r="Q80" t="n">
+      <c r="Q80">
         <v>5.1</v>
       </c>
-      <c r="R80" t="n">
+      <c r="R80">
         <v>5.1</v>
       </c>
-      <c r="S80" t="n">
+      <c r="S80">
         <v>4.7</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Trumbull County</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
+    <row r="81" spans="1:19">
+      <c r="A81" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" t="s">
+        <v>100</v>
+      </c>
+      <c r="C81">
         <v>7.1</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>7.7</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>7.9</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>7</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>6.2</v>
       </c>
-      <c r="H81" t="n">
+      <c r="H81">
         <v>6.3</v>
       </c>
-      <c r="I81" t="n">
+      <c r="I81">
         <v>7.6</v>
       </c>
-      <c r="J81" t="n">
+      <c r="J81">
         <v>13.9</v>
       </c>
-      <c r="K81" t="n">
+      <c r="K81">
         <v>13.3</v>
       </c>
-      <c r="L81" t="n">
+      <c r="L81">
         <v>10.7</v>
       </c>
-      <c r="M81" t="n">
+      <c r="M81">
         <v>9</v>
       </c>
-      <c r="N81" t="n">
+      <c r="N81">
         <v>9.300000000000001</v>
       </c>
-      <c r="O81" t="n">
+      <c r="O81">
         <v>7.3</v>
       </c>
-      <c r="P81" t="n">
+      <c r="P81">
         <v>6.5</v>
       </c>
-      <c r="Q81" t="n">
+      <c r="Q81">
         <v>6.8</v>
       </c>
-      <c r="R81" t="n">
+      <c r="R81">
         <v>7.2</v>
       </c>
-      <c r="S81" t="n">
+      <c r="S81">
         <v>6.2</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Tuscarawas County</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
+    <row r="82" spans="1:19">
+      <c r="A82" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82" t="s">
+        <v>101</v>
+      </c>
+      <c r="C82">
         <v>5.9</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>6.4</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>6.3</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>5.8</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>5.1</v>
       </c>
-      <c r="H82" t="n">
+      <c r="H82">
         <v>5.4</v>
       </c>
-      <c r="I82" t="n">
+      <c r="I82">
         <v>6.3</v>
       </c>
-      <c r="J82" t="n">
+      <c r="J82">
         <v>11.3</v>
       </c>
-      <c r="K82" t="n">
+      <c r="K82">
         <v>11.3</v>
       </c>
-      <c r="L82" t="n">
+      <c r="L82">
         <v>9.300000000000001</v>
       </c>
-      <c r="M82" t="n">
+      <c r="M82">
         <v>7.4</v>
       </c>
-      <c r="N82" t="n">
+      <c r="N82">
         <v>7.3</v>
       </c>
-      <c r="O82" t="n">
+      <c r="O82">
         <v>5.5</v>
       </c>
-      <c r="P82" t="n">
+      <c r="P82">
         <v>5.4</v>
       </c>
-      <c r="Q82" t="n">
+      <c r="Q82">
         <v>5.8</v>
       </c>
-      <c r="R82" t="n">
+      <c r="R82">
         <v>5</v>
       </c>
-      <c r="S82" t="n">
+      <c r="S82">
         <v>4.6</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Union County</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
+    <row r="83" spans="1:19">
+      <c r="A83" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83" t="s">
+        <v>102</v>
+      </c>
+      <c r="C83">
         <v>4.4</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>4.9</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>5.2</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>5.1</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>4.5</v>
       </c>
-      <c r="H83" t="n">
+      <c r="H83">
         <v>4.3</v>
       </c>
-      <c r="I83" t="n">
+      <c r="I83">
         <v>5.3</v>
       </c>
-      <c r="J83" t="n">
+      <c r="J83">
         <v>8.6</v>
       </c>
-      <c r="K83" t="n">
+      <c r="K83">
         <v>8.4</v>
       </c>
-      <c r="L83" t="n">
+      <c r="L83">
         <v>7.2</v>
       </c>
-      <c r="M83" t="n">
+      <c r="M83">
         <v>5.8</v>
       </c>
-      <c r="N83" t="n">
+      <c r="N83">
         <v>5.8</v>
       </c>
-      <c r="O83" t="n">
+      <c r="O83">
         <v>4.5</v>
       </c>
-      <c r="P83" t="n">
+      <c r="P83">
         <v>3.9</v>
       </c>
-      <c r="Q83" t="n">
+      <c r="Q83">
         <v>3.8</v>
       </c>
-      <c r="R83" t="n">
+      <c r="R83">
         <v>3.7</v>
       </c>
-      <c r="S83" t="n">
+      <c r="S83">
         <v>3.5</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Van Wert County</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
+    <row r="84" spans="1:19">
+      <c r="A84" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84" t="s">
+        <v>103</v>
+      </c>
+      <c r="C84">
         <v>6</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>6.3</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>5.7</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>5.3</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>4.9</v>
       </c>
-      <c r="H84" t="n">
+      <c r="H84">
         <v>5.5</v>
       </c>
-      <c r="I84" t="n">
+      <c r="I84">
         <v>8.6</v>
       </c>
-      <c r="J84" t="n">
+      <c r="J84">
         <v>14.9</v>
       </c>
-      <c r="K84" t="n">
+      <c r="K84">
         <v>12.1</v>
       </c>
-      <c r="L84" t="n">
+      <c r="L84">
         <v>9.300000000000001</v>
       </c>
-      <c r="M84" t="n">
+      <c r="M84">
         <v>7.5</v>
       </c>
-      <c r="N84" t="n">
+      <c r="N84">
         <v>6.9</v>
       </c>
-      <c r="O84" t="n">
+      <c r="O84">
         <v>4.9</v>
       </c>
-      <c r="P84" t="n">
+      <c r="P84">
         <v>4.2</v>
       </c>
-      <c r="Q84" t="n">
+      <c r="Q84">
         <v>4.1</v>
       </c>
-      <c r="R84" t="n">
+      <c r="R84">
         <v>3.9</v>
       </c>
-      <c r="S84" t="n">
+      <c r="S84">
         <v>3.5</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Vinton County</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
+    <row r="85" spans="1:19">
+      <c r="A85" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" t="s">
+        <v>104</v>
+      </c>
+      <c r="C85">
         <v>8.800000000000001</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>9.5</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>9</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>8.4</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>7.9</v>
       </c>
-      <c r="H85" t="n">
+      <c r="H85">
         <v>7.9</v>
       </c>
-      <c r="I85" t="n">
+      <c r="I85">
         <v>9.300000000000001</v>
       </c>
-      <c r="J85" t="n">
+      <c r="J85">
         <v>13.2</v>
       </c>
-      <c r="K85" t="n">
+      <c r="K85">
         <v>13.5</v>
       </c>
-      <c r="L85" t="n">
+      <c r="L85">
         <v>11.9</v>
       </c>
-      <c r="M85" t="n">
+      <c r="M85">
         <v>10.8</v>
       </c>
-      <c r="N85" t="n">
+      <c r="N85">
         <v>10.6</v>
       </c>
-      <c r="O85" t="n">
+      <c r="O85">
         <v>8</v>
       </c>
-      <c r="P85" t="n">
+      <c r="P85">
         <v>6.6</v>
       </c>
-      <c r="Q85" t="n">
+      <c r="Q85">
         <v>7.1</v>
       </c>
-      <c r="R85" t="n">
+      <c r="R85">
         <v>6.8</v>
       </c>
-      <c r="S85" t="n">
+      <c r="S85">
         <v>6.2</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Warren County</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
+    <row r="86" spans="1:19">
+      <c r="A86" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" t="s">
+        <v>105</v>
+      </c>
+      <c r="C86">
         <v>4.8</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>5.1</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>5.1</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>4.9</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>4.9</v>
       </c>
-      <c r="H86" t="n">
+      <c r="H86">
         <v>4.6</v>
       </c>
-      <c r="I86" t="n">
+      <c r="I86">
         <v>5.6</v>
       </c>
-      <c r="J86" t="n">
+      <c r="J86">
         <v>8.9</v>
       </c>
-      <c r="K86" t="n">
+      <c r="K86">
         <v>9.1</v>
       </c>
-      <c r="L86" t="n">
+      <c r="L86">
         <v>7.9</v>
       </c>
-      <c r="M86" t="n">
+      <c r="M86">
         <v>6.5</v>
       </c>
-      <c r="N86" t="n">
+      <c r="N86">
         <v>6.4</v>
       </c>
-      <c r="O86" t="n">
+      <c r="O86">
         <v>5</v>
       </c>
-      <c r="P86" t="n">
+      <c r="P86">
         <v>4.2</v>
       </c>
-      <c r="Q86" t="n">
+      <c r="Q86">
         <v>4.2</v>
       </c>
-      <c r="R86" t="n">
+      <c r="R86">
         <v>4.1</v>
       </c>
-      <c r="S86" t="n">
+      <c r="S86">
         <v>3.8</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Washington County</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
+    <row r="87" spans="1:19">
+      <c r="A87" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87">
         <v>5.9</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>6.4</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>6.6</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>6.1</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>5.2</v>
       </c>
-      <c r="H87" t="n">
+      <c r="H87">
         <v>5.2</v>
       </c>
-      <c r="I87" t="n">
+      <c r="I87">
         <v>5.6</v>
       </c>
-      <c r="J87" t="n">
+      <c r="J87">
         <v>9.6</v>
       </c>
-      <c r="K87" t="n">
+      <c r="K87">
         <v>11.4</v>
       </c>
-      <c r="L87" t="n">
+      <c r="L87">
         <v>10.1</v>
       </c>
-      <c r="M87" t="n">
+      <c r="M87">
         <v>8.6</v>
       </c>
-      <c r="N87" t="n">
+      <c r="N87">
         <v>8.6</v>
       </c>
-      <c r="O87" t="n">
+      <c r="O87">
         <v>6.4</v>
       </c>
-      <c r="P87" t="n">
+      <c r="P87">
         <v>6.1</v>
       </c>
-      <c r="Q87" t="n">
+      <c r="Q87">
         <v>7</v>
       </c>
-      <c r="R87" t="n">
+      <c r="R87">
         <v>6.2</v>
       </c>
-      <c r="S87" t="n">
+      <c r="S87">
         <v>5.6</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Wayne County</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
+    <row r="88" spans="1:19">
+      <c r="A88" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" t="s">
+        <v>107</v>
+      </c>
+      <c r="C88">
         <v>5.1</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>5.3</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>5.5</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>5.1</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>4.6</v>
       </c>
-      <c r="H88" t="n">
+      <c r="H88">
         <v>4.8</v>
       </c>
-      <c r="I88" t="n">
+      <c r="I88">
         <v>5.8</v>
       </c>
-      <c r="J88" t="n">
+      <c r="J88">
         <v>10</v>
       </c>
-      <c r="K88" t="n">
+      <c r="K88">
         <v>9.300000000000001</v>
       </c>
-      <c r="L88" t="n">
+      <c r="L88">
         <v>7.7</v>
       </c>
-      <c r="M88" t="n">
+      <c r="M88">
         <v>6.1</v>
       </c>
-      <c r="N88" t="n">
+      <c r="N88">
         <v>6.2</v>
       </c>
-      <c r="O88" t="n">
+      <c r="O88">
         <v>4.6</v>
       </c>
-      <c r="P88" t="n">
+      <c r="P88">
         <v>4</v>
       </c>
-      <c r="Q88" t="n">
+      <c r="Q88">
         <v>4</v>
       </c>
-      <c r="R88" t="n">
+      <c r="R88">
         <v>3.9</v>
       </c>
-      <c r="S88" t="n">
+      <c r="S88">
         <v>3.6</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Williams County</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
+    <row r="89" spans="1:19">
+      <c r="A89" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" t="s">
+        <v>108</v>
+      </c>
+      <c r="C89">
         <v>6.5</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>7</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>6.5</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>6.3</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>5.9</v>
       </c>
-      <c r="H89" t="n">
+      <c r="H89">
         <v>6.1</v>
       </c>
-      <c r="I89" t="n">
+      <c r="I89">
         <v>7.8</v>
       </c>
-      <c r="J89" t="n">
+      <c r="J89">
         <v>15.9</v>
       </c>
-      <c r="K89" t="n">
+      <c r="K89">
         <v>13.2</v>
       </c>
-      <c r="L89" t="n">
+      <c r="L89">
         <v>10.7</v>
       </c>
-      <c r="M89" t="n">
+      <c r="M89">
         <v>7.9</v>
       </c>
-      <c r="N89" t="n">
+      <c r="N89">
         <v>7.4</v>
       </c>
-      <c r="O89" t="n">
+      <c r="O89">
         <v>5.5</v>
       </c>
-      <c r="P89" t="n">
+      <c r="P89">
         <v>4.5</v>
       </c>
-      <c r="Q89" t="n">
+      <c r="Q89">
         <v>4.5</v>
       </c>
-      <c r="R89" t="n">
+      <c r="R89">
         <v>4.4</v>
       </c>
-      <c r="S89" t="n">
+      <c r="S89">
         <v>3.6</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Wood County</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
+    <row r="90" spans="1:19">
+      <c r="A90" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90" t="s">
+        <v>109</v>
+      </c>
+      <c r="C90">
         <v>5.4</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>5.9</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>6</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>5.8</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>5.2</v>
       </c>
-      <c r="H90" t="n">
+      <c r="H90">
         <v>5.4</v>
       </c>
-      <c r="I90" t="n">
+      <c r="I90">
         <v>6.8</v>
       </c>
-      <c r="J90" t="n">
+      <c r="J90">
         <v>11.4</v>
       </c>
-      <c r="K90" t="n">
+      <c r="K90">
         <v>9.9</v>
       </c>
-      <c r="L90" t="n">
+      <c r="L90">
         <v>8.300000000000001</v>
       </c>
-      <c r="M90" t="n">
+      <c r="M90">
         <v>6.9</v>
       </c>
-      <c r="N90" t="n">
+      <c r="N90">
         <v>7</v>
       </c>
-      <c r="O90" t="n">
+      <c r="O90">
         <v>5.2</v>
       </c>
-      <c r="P90" t="n">
+      <c r="P90">
         <v>4.3</v>
       </c>
-      <c r="Q90" t="n">
+      <c r="Q90">
         <v>4.2</v>
       </c>
-      <c r="R90" t="n">
+      <c r="R90">
         <v>4.4</v>
       </c>
-      <c r="S90" t="n">
+      <c r="S90">
         <v>4</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Wyandot County</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
+    <row r="91" spans="1:19">
+      <c r="A91" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" t="s">
+        <v>110</v>
+      </c>
+      <c r="C91">
         <v>5.6</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>5.6</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>5.8</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>6</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>5.9</v>
       </c>
-      <c r="H91" t="n">
+      <c r="H91">
         <v>6.5</v>
       </c>
-      <c r="I91" t="n">
+      <c r="I91">
         <v>8</v>
       </c>
-      <c r="J91" t="n">
+      <c r="J91">
         <v>14</v>
       </c>
-      <c r="K91" t="n">
+      <c r="K91">
         <v>11.1</v>
       </c>
-      <c r="L91" t="n">
+      <c r="L91">
         <v>9.199999999999999</v>
       </c>
-      <c r="M91" t="n">
+      <c r="M91">
         <v>6.8</v>
       </c>
-      <c r="N91" t="n">
+      <c r="N91">
         <v>6.3</v>
       </c>
-      <c r="O91" t="n">
+      <c r="O91">
         <v>4.4</v>
       </c>
-      <c r="P91" t="n">
+      <c r="P91">
         <v>3.7</v>
       </c>
-      <c r="Q91" t="n">
+      <c r="Q91">
         <v>3.7</v>
       </c>
-      <c r="R91" t="n">
+      <c r="R91">
         <v>3.7</v>
       </c>
-      <c r="S91" t="n">
+      <c r="S91">
         <v>3.2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>